--- a/projname/data/Book1.xlsx
+++ b/projname/data/Book1.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Online\10.30AM JavaSelenium\JAVA\Day13\JSEvening\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\repository4\JSEvening\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDCC288-834A-4847-B7D0-E29C8CF90938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E7DD1-424E-44EB-9EEE-C363A64CBC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2310" windowWidth="14655" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>A1</t>
   </si>
@@ -39,9 +39,6 @@
     <t>B1</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
@@ -54,14 +51,22 @@
     <t>C3</t>
   </si>
   <si>
-    <t>bhanu</t>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,45 +384,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
+      <c r="E1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
